--- a/21-exemple-fhir---utilisation-du-code-export_dui-pour-lélément-documentreferencetype/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/21-exemple-fhir---utilisation-du-code-export_dui-pour-lélément-documentreferencetype/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T14:34:34+00:00</t>
+    <t>2025-08-20T14:51:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
